--- a/SuppXLS/Scen_NCAP.xlsx
+++ b/SuppXLS/Scen_NCAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/TIMES-PL-PSE/Shared Documents/General/Materiały_Szkoleniowe/Model_I_Lipiec/NCAE_2022_S1/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\KSE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_9B85B66F3B26C804107A9A1F26B845735D4C5048" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{486C7C21-5381-4FC8-A9D0-DB8171AA0859}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A54E3-3149-439F-A8C6-8CD14221DD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
     <t>NCAP_BND</t>
   </si>
   <si>
-    <t>UP</t>
+    <t>EL_NEW_ATOMOWA</t>
   </si>
   <si>
-    <t>EL_ATOMOWA</t>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -105,7 +105,7 @@
     <numFmt numFmtId="182" formatCode="yyyy"/>
     <numFmt numFmtId="183" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="105">
+  <fonts count="104">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -576,10 +576,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Geneva"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1279,7 +1275,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1292">
+  <cellStyleXfs count="1291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1608,7 +1604,7 @@
     <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="95" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="94" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1786,15 +1782,15 @@
     <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="75" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="177" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="75" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="75" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="74" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1831,7 +1827,7 @@
     <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="174" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1849,7 +1845,7 @@
     <xf numFmtId="0" fontId="49" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="96" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="95" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1875,141 +1871,141 @@
     <xf numFmtId="169" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="75" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="68" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -2019,7 +2015,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2196,7 +2192,7 @@
     <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="99" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="98" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2208,7 +2204,7 @@
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="82" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="81" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -2232,7 +2228,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
@@ -2263,39 +2258,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
@@ -2316,18 +2311,18 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
@@ -2347,7 +2342,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
@@ -2404,7 +2399,7 @@
     <xf numFmtId="9" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="71" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="94" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2432,67 +2427,67 @@
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="84" fillId="25" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="83" fillId="25" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="85" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="84" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="84" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="83" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="83" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="84" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="83" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="3" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="3" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="9" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="9" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="15" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="15" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="18" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="18" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="30" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="30" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="10" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="10" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="84" fillId="31" borderId="15" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="83" fillId="31" borderId="15" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="87" fillId="33" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="86" fillId="33" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
@@ -2519,34 +2514,34 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="88" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="87" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="85" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="88" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="87" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="86" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="85" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="85" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="89" fillId="36" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="88" fillId="36" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="73" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="4" fontId="72" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2554,24 +2549,24 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -2583,34 +2578,34 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="16" applyNumberFormat="0" applyProtection="0">
@@ -2649,7 +2644,7 @@
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2711,70 +2706,70 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2784,7 +2779,7 @@
     <xf numFmtId="37" fontId="68" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="68" fillId="0" borderId="0"/>
     <xf numFmtId="37" fontId="68" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="91" fillId="0" borderId="9" applyProtection="0"/>
+    <xf numFmtId="3" fontId="90" fillId="0" borderId="9" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -2814,7 +2809,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="92" fillId="0" borderId="0">
+    <xf numFmtId="183" fontId="91" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2843,7 +2838,7 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="102" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="101" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="42" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2861,14 +2856,14 @@
     <xf numFmtId="0" fontId="16" fillId="44" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="102" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="103" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1292">
+  <cellStyles count="1291">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20 % - Akzent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20 % - Akzent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3680,6 +3675,7 @@
     <cellStyle name="Neutralne 9 3" xfId="809" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
     <cellStyle name="Neutralne_D_HEAT" xfId="810" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
     <cellStyle name="no dec" xfId="811" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="812" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
     <cellStyle name="Normal 10" xfId="813" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
     <cellStyle name="Normal 14" xfId="814" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
@@ -3701,466 +3697,464 @@
     <cellStyle name="Normal GHG Textfiels Bold" xfId="830" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
     <cellStyle name="Normal GHG-Shade" xfId="831" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="832" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
-    <cellStyle name="Normal_cooking" xfId="833" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
-    <cellStyle name="Normale_B2020" xfId="834" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="835" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
-    <cellStyle name="Normalny 10 2" xfId="836" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
-    <cellStyle name="Normalny 10 2 2" xfId="837" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
-    <cellStyle name="Normalny 10 2 3" xfId="838" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
-    <cellStyle name="Normalny 10 2 4" xfId="839" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
-    <cellStyle name="Normalny 10 3" xfId="840" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
-    <cellStyle name="Normalny 10 3 2" xfId="841" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
-    <cellStyle name="Normalny 10 3 3" xfId="842" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
-    <cellStyle name="Normalny 10 4" xfId="843" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
-    <cellStyle name="Normalny 11" xfId="844" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
-    <cellStyle name="Normalny 11 2" xfId="845" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
-    <cellStyle name="Normalny 11 2 2" xfId="846" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
-    <cellStyle name="Normalny 11 2 3" xfId="847" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
-    <cellStyle name="Normalny 11 2 4" xfId="848" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
-    <cellStyle name="Normalny 11 3" xfId="849" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
-    <cellStyle name="Normalny 11 3 2" xfId="850" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
-    <cellStyle name="Normalny 11 3 2 2" xfId="851" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
-    <cellStyle name="Normalny 11 3 2 3" xfId="852" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
-    <cellStyle name="Normalny 11 3 3" xfId="853" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
-    <cellStyle name="Normalny 11 4" xfId="854" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
-    <cellStyle name="Normalny 11 4 2" xfId="855" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
-    <cellStyle name="Normalny 11 4 3" xfId="856" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
-    <cellStyle name="Normalny 11 5" xfId="857" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
-    <cellStyle name="Normalny 11 5 2" xfId="858" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
-    <cellStyle name="Normalny 11 5 3" xfId="859" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
-    <cellStyle name="Normalny 11 6" xfId="860" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
-    <cellStyle name="Normalny 11 6 2" xfId="861" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
-    <cellStyle name="Normalny 11 7" xfId="862" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
-    <cellStyle name="Normalny 11 7 2" xfId="863" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
-    <cellStyle name="Normalny 12" xfId="864" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
-    <cellStyle name="Normalny 13" xfId="865" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
-    <cellStyle name="Normalny 13 10" xfId="866" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
-    <cellStyle name="Normalny 13 10 2" xfId="867" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
-    <cellStyle name="Normalny 13 11" xfId="868" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
-    <cellStyle name="Normalny 13 2" xfId="869" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
-    <cellStyle name="Normalny 13 2 2" xfId="870" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
-    <cellStyle name="Normalny 13 2 2 2" xfId="871" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 2" xfId="872" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 2 2" xfId="873" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 3" xfId="874" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 3 2" xfId="875" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 4" xfId="876" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 5" xfId="877" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
-    <cellStyle name="Normalny 13 2 2 3" xfId="878" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
-    <cellStyle name="Normalny 13 2 2 3 2" xfId="879" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
-    <cellStyle name="Normalny 13 2 2 4" xfId="880" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
-    <cellStyle name="Normalny 13 2 2 4 2" xfId="881" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
-    <cellStyle name="Normalny 13 2 2 5" xfId="882" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
-    <cellStyle name="Normalny 13 2 2 6" xfId="883" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
-    <cellStyle name="Normalny 13 2 3" xfId="884" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
-    <cellStyle name="Normalny 13 2 3 2" xfId="885" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
-    <cellStyle name="Normalny 13 2 3 2 2" xfId="886" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
-    <cellStyle name="Normalny 13 2 3 3" xfId="887" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
-    <cellStyle name="Normalny 13 2 3 3 2" xfId="888" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
-    <cellStyle name="Normalny 13 2 3 4" xfId="889" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
-    <cellStyle name="Normalny 13 2 3 5" xfId="890" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
-    <cellStyle name="Normalny 13 2 4" xfId="891" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
-    <cellStyle name="Normalny 13 2 4 2" xfId="892" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
-    <cellStyle name="Normalny 13 2 5" xfId="893" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
-    <cellStyle name="Normalny 13 2 5 2" xfId="894" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
-    <cellStyle name="Normalny 13 2 6" xfId="895" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
-    <cellStyle name="Normalny 13 2 7" xfId="896" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
-    <cellStyle name="Normalny 13 3" xfId="897" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
-    <cellStyle name="Normalny 13 3 2" xfId="898" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
-    <cellStyle name="Normalny 13 3 2 2" xfId="899" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
-    <cellStyle name="Normalny 13 3 2 2 2" xfId="900" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
-    <cellStyle name="Normalny 13 3 2 2 3" xfId="901" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
-    <cellStyle name="Normalny 13 3 2 3" xfId="902" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
-    <cellStyle name="Normalny 13 3 2 4" xfId="903" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
-    <cellStyle name="Normalny 13 3 3" xfId="904" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
-    <cellStyle name="Normalny 13 3 4" xfId="905" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
-    <cellStyle name="Normalny 13 3 5" xfId="906" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
-    <cellStyle name="Normalny 13 3 5 2" xfId="907" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
-    <cellStyle name="Normalny 13 3 6" xfId="908" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
-    <cellStyle name="Normalny 13 3 6 2" xfId="909" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
-    <cellStyle name="Normalny 13 3 7" xfId="910" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
-    <cellStyle name="Normalny 13 4" xfId="911" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
-    <cellStyle name="Normalny 13 4 2" xfId="912" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
-    <cellStyle name="Normalny 13 4 3" xfId="913" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
-    <cellStyle name="Normalny 13 5" xfId="914" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
-    <cellStyle name="Normalny 13 5 2" xfId="915" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
-    <cellStyle name="Normalny 13 5 3" xfId="916" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
-    <cellStyle name="Normalny 13 6" xfId="917" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
-    <cellStyle name="Normalny 13 6 2" xfId="918" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
-    <cellStyle name="Normalny 13 6 2 2" xfId="919" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
-    <cellStyle name="Normalny 13 6 3" xfId="920" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
-    <cellStyle name="Normalny 13 6 3 2" xfId="921" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
-    <cellStyle name="Normalny 13 6 4" xfId="922" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
-    <cellStyle name="Normalny 13 6 5" xfId="923" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
-    <cellStyle name="Normalny 13 7" xfId="924" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
-    <cellStyle name="Normalny 13 7 2" xfId="925" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
-    <cellStyle name="Normalny 13 8" xfId="926" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
-    <cellStyle name="Normalny 13 8 2" xfId="927" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
-    <cellStyle name="Normalny 13 9" xfId="928" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
-    <cellStyle name="Normalny 14" xfId="929" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
-    <cellStyle name="Normalny 14 2" xfId="930" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
-    <cellStyle name="Normalny 14 2 2" xfId="931" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
-    <cellStyle name="Normalny 14 2 2 2" xfId="932" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
-    <cellStyle name="Normalny 14 2 2 3" xfId="933" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
-    <cellStyle name="Normalny 14 2 3" xfId="934" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
-    <cellStyle name="Normalny 14 2 4" xfId="935" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
-    <cellStyle name="Normalny 14 3" xfId="936" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
-    <cellStyle name="Normalny 14 4" xfId="937" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
-    <cellStyle name="Normalny 14 5" xfId="938" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
-    <cellStyle name="Normalny 14 5 2" xfId="939" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
-    <cellStyle name="Normalny 15" xfId="940" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
-    <cellStyle name="Normalny 15 2" xfId="941" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
-    <cellStyle name="Normalny 16" xfId="942" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
-    <cellStyle name="Normalny 16 2" xfId="943" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
-    <cellStyle name="Normalny 16 3" xfId="944" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
-    <cellStyle name="Normalny 17" xfId="945" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
-    <cellStyle name="Normalny 18" xfId="946" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
-    <cellStyle name="Normalny 18 2" xfId="947" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
-    <cellStyle name="Normalny 19" xfId="948" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
-    <cellStyle name="Normalny 2" xfId="949" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
-    <cellStyle name="Normalny 2 2" xfId="950" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
-    <cellStyle name="Normalny 2 3" xfId="951" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
-    <cellStyle name="Normalny 2 4" xfId="952" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
-    <cellStyle name="Normalny 20" xfId="953" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
-    <cellStyle name="Normalny 3" xfId="954" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
-    <cellStyle name="Normalny 4" xfId="955" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
-    <cellStyle name="Normalny 5" xfId="956" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
-    <cellStyle name="Normalny 6" xfId="957" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
-    <cellStyle name="Normalny 7" xfId="958" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
-    <cellStyle name="Normalny 8" xfId="959" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
-    <cellStyle name="Normalny 9" xfId="960" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
-    <cellStyle name="Note 2" xfId="961" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
-    <cellStyle name="Note 3" xfId="962" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
-    <cellStyle name="Notiz 2" xfId="963" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
-    <cellStyle name="Obliczenia" xfId="964" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
-    <cellStyle name="Obliczenia 10" xfId="965" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
-    <cellStyle name="Obliczenia 10 2" xfId="966" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
-    <cellStyle name="Obliczenia 10 3" xfId="967" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
-    <cellStyle name="Obliczenia 11" xfId="968" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
-    <cellStyle name="Obliczenia 12" xfId="969" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
-    <cellStyle name="Obliczenia 2" xfId="970" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
-    <cellStyle name="Obliczenia 3" xfId="971" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
-    <cellStyle name="Obliczenia 4" xfId="972" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
-    <cellStyle name="Obliczenia 5" xfId="973" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
-    <cellStyle name="Obliczenia 6" xfId="974" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
-    <cellStyle name="Obliczenia 7" xfId="975" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
-    <cellStyle name="Obliczenia 8" xfId="976" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
-    <cellStyle name="Obliczenia 9" xfId="977" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
-    <cellStyle name="Obliczenia 9 2" xfId="978" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
-    <cellStyle name="Obliczenia 9 3" xfId="979" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
-    <cellStyle name="Obliczenia_D_HEAT" xfId="980" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
-    <cellStyle name="Output 2" xfId="981" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
-    <cellStyle name="Output 3" xfId="982" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
-    <cellStyle name="Percent [2]" xfId="983" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
-    <cellStyle name="Procentowy 2" xfId="984" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
-    <cellStyle name="Procentowy 2 2" xfId="985" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
-    <cellStyle name="Procentowy 2 2 2" xfId="986" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
-    <cellStyle name="Procentowy 2 2 3" xfId="987" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
-    <cellStyle name="Procentowy 2 2 4" xfId="988" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
-    <cellStyle name="Procentowy 2 3" xfId="989" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
-    <cellStyle name="Procentowy 2 3 2" xfId="990" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
-    <cellStyle name="Procentowy 2 3 2 2" xfId="991" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
-    <cellStyle name="Procentowy 2 3 2 3" xfId="992" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
-    <cellStyle name="Procentowy 2 3 3" xfId="993" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
-    <cellStyle name="Procentowy 2 4" xfId="994" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
-    <cellStyle name="Procentowy 2 4 2" xfId="995" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
-    <cellStyle name="Procentowy 2 4 3" xfId="996" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
-    <cellStyle name="Procentowy 2 5" xfId="997" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
-    <cellStyle name="Procentowy 2 6" xfId="998" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
-    <cellStyle name="Procentowy 2 6 2" xfId="999" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
-    <cellStyle name="Procentowy 2 7" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
-    <cellStyle name="Procentowy 2 7 2" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
-    <cellStyle name="Procentowy 3" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
-    <cellStyle name="Procentowy 4" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
-    <cellStyle name="Procentowy 5" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
-    <cellStyle name="Procentowy 6" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
-    <cellStyle name="Prozent 2" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
-    <cellStyle name="Prozent 2 2" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
-    <cellStyle name="Prozent 3" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
-    <cellStyle name="Prozent 4" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
-    <cellStyle name="Prozent 5" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
-    <cellStyle name="Prozent 5 2" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
-    <cellStyle name="Prozent 5 2 2" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
-    <cellStyle name="Prozent 5 2 3" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
-    <cellStyle name="Prozent 5 3" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
-    <cellStyle name="Prozent 5 3 2" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
-    <cellStyle name="Prozent 5 3 3" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
-    <cellStyle name="Prozent 5 3 4" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
-    <cellStyle name="Prozent 5 4" xfId="1018" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
-    <cellStyle name="Prozent 6" xfId="1019" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
-    <cellStyle name="Prozent 6 2" xfId="1020" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
-    <cellStyle name="Prozent 6 2 2" xfId="1021" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
-    <cellStyle name="Prozent 6 2 3" xfId="1022" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
-    <cellStyle name="Prozent 6 3" xfId="1023" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
-    <cellStyle name="Prozent 6 3 2" xfId="1024" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
-    <cellStyle name="Prozent 6 3 3" xfId="1025" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
-    <cellStyle name="Prozent 6 3 4" xfId="1026" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
-    <cellStyle name="Prozent 6 4" xfId="1027" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
-    <cellStyle name="Prozent 7" xfId="1028" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
-    <cellStyle name="Prozent 8" xfId="1029" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
-    <cellStyle name="Prozent 8 2" xfId="1030" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
-    <cellStyle name="Prozent 8 2 2" xfId="1031" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
-    <cellStyle name="Prozent 8 3" xfId="1032" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
-    <cellStyle name="RangeName" xfId="1033" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
-    <cellStyle name="SAPBEXaggData" xfId="1034" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="1035" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
-    <cellStyle name="SAPBEXaggItem" xfId="1036" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
-    <cellStyle name="SAPBEXaggItemX" xfId="1037" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
-    <cellStyle name="SAPBEXchaText" xfId="1038" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
-    <cellStyle name="SAPBEXexcBad7" xfId="1039" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
-    <cellStyle name="SAPBEXexcBad8" xfId="1040" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
-    <cellStyle name="SAPBEXexcBad9" xfId="1041" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
-    <cellStyle name="SAPBEXexcCritical4" xfId="1042" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
-    <cellStyle name="SAPBEXexcCritical5" xfId="1043" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="1044" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
-    <cellStyle name="SAPBEXexcGood1" xfId="1045" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="1046" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
-    <cellStyle name="SAPBEXexcGood3" xfId="1047" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="1048" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="1049" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
-    <cellStyle name="SAPBEXfilterText" xfId="1050" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
-    <cellStyle name="SAPBEXformats" xfId="1051" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="1052" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
-    <cellStyle name="SAPBEXheaderText" xfId="1053" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
-    <cellStyle name="SAPBEXHLevel0" xfId="1054" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
-    <cellStyle name="SAPBEXHLevel0X" xfId="1055" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
-    <cellStyle name="SAPBEXHLevel1" xfId="1056" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
-    <cellStyle name="SAPBEXHLevel1X" xfId="1057" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
-    <cellStyle name="SAPBEXHLevel2" xfId="1058" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
-    <cellStyle name="SAPBEXHLevel2X" xfId="1059" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
-    <cellStyle name="SAPBEXHLevel3" xfId="1060" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
-    <cellStyle name="SAPBEXHLevel3X" xfId="1061" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
-    <cellStyle name="SAPBEXresData" xfId="1062" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="1063" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
-    <cellStyle name="SAPBEXresItem" xfId="1064" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
-    <cellStyle name="SAPBEXresItemX" xfId="1065" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
-    <cellStyle name="SAPBEXstdData" xfId="1066" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="1067" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
-    <cellStyle name="SAPBEXstdItem" xfId="1068" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
-    <cellStyle name="SAPBEXstdItemX" xfId="1069" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
-    <cellStyle name="SAPBEXtitle" xfId="1070" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
-    <cellStyle name="SAPBEXundefined" xfId="1071" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
-    <cellStyle name="Schlecht 2" xfId="1072" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
-    <cellStyle name="Shade" xfId="1073" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
-    <cellStyle name="Standaard_Blad1" xfId="1074" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
-    <cellStyle name="Standard 10" xfId="1075" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
-    <cellStyle name="Standard 11" xfId="1076" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
-    <cellStyle name="Standard 11 2" xfId="1077" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
-    <cellStyle name="Standard 11 3" xfId="1078" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
-    <cellStyle name="Standard 11 4" xfId="1079" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
-    <cellStyle name="Standard 11 5" xfId="1080" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
-    <cellStyle name="Standard 12" xfId="1081" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
-    <cellStyle name="Standard 12 2" xfId="1082" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
-    <cellStyle name="Standard 12 2 2" xfId="1083" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
-    <cellStyle name="Standard 12 2 2 2" xfId="1084" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
-    <cellStyle name="Standard 12 3" xfId="1085" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
-    <cellStyle name="Standard 12 4" xfId="1086" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
-    <cellStyle name="Standard 13" xfId="1087" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
-    <cellStyle name="Standard 2" xfId="1088" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
-    <cellStyle name="Standard 2 2" xfId="1089" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
-    <cellStyle name="Standard 2 3" xfId="1090" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
-    <cellStyle name="Standard 2 3 2" xfId="1091" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
-    <cellStyle name="Standard 2 3 3" xfId="1092" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
-    <cellStyle name="Standard 2 4" xfId="1093" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
-    <cellStyle name="Standard 2 4 2" xfId="1094" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
-    <cellStyle name="Standard 2 4 3" xfId="1095" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
-    <cellStyle name="Standard 2 5" xfId="1096" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
-    <cellStyle name="Standard 3" xfId="1097" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
-    <cellStyle name="Standard 3 2" xfId="1098" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
-    <cellStyle name="Standard 3_PL" xfId="1099" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
-    <cellStyle name="Standard 4" xfId="1100" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
-    <cellStyle name="Standard 4 2" xfId="1101" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
-    <cellStyle name="Standard 4_PL" xfId="1102" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
-    <cellStyle name="Standard 5" xfId="1103" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
-    <cellStyle name="Standard 5 2" xfId="1104" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
-    <cellStyle name="Standard 5 2 2" xfId="1105" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
-    <cellStyle name="Standard 5 2 2 2" xfId="1106" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
-    <cellStyle name="Standard 5 2 2 3" xfId="1107" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
-    <cellStyle name="Standard 5 2 3" xfId="1108" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
-    <cellStyle name="Standard 5 2 3 2" xfId="1109" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
-    <cellStyle name="Standard 5 2 3 3" xfId="1110" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
-    <cellStyle name="Standard 5 2 4" xfId="1111" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
-    <cellStyle name="Standard 5 2 5" xfId="1112" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
-    <cellStyle name="Standard 5 2_ELC_Processes" xfId="1113" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
-    <cellStyle name="Standard 5 3" xfId="1114" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
-    <cellStyle name="Standard 5 3 2" xfId="1115" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
-    <cellStyle name="Standard 5 3 3" xfId="1116" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
-    <cellStyle name="Standard 5 4" xfId="1117" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
-    <cellStyle name="Standard 5 4 2" xfId="1118" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
-    <cellStyle name="Standard 5 4 3" xfId="1119" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
-    <cellStyle name="Standard 5 5" xfId="1120" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
-    <cellStyle name="Standard 5 5 2" xfId="1121" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
-    <cellStyle name="Standard 5 5 3" xfId="1122" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
-    <cellStyle name="Standard 5 6" xfId="1123" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
-    <cellStyle name="Standard 5 7" xfId="1124" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
-    <cellStyle name="Standard 5_ELC_Processes" xfId="1125" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
-    <cellStyle name="Standard 6" xfId="1126" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
-    <cellStyle name="Standard 6 2" xfId="1127" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
-    <cellStyle name="Standard 7" xfId="1128" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
-    <cellStyle name="Standard 8" xfId="1129" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
-    <cellStyle name="Standard 8 2" xfId="1130" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
-    <cellStyle name="Standard 8 3" xfId="1131" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
-    <cellStyle name="Standard 9" xfId="1132" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
-    <cellStyle name="Standard 9 2" xfId="1133" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
-    <cellStyle name="Standard 9 3" xfId="1134" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
-    <cellStyle name="Standard_Results_Pan_EU_OLGA_NUC" xfId="1135" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
-    <cellStyle name="Style 21" xfId="1136" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
-    <cellStyle name="Style 22" xfId="1137" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
-    <cellStyle name="Style 23" xfId="1138" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
-    <cellStyle name="Style 24" xfId="1139" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
-    <cellStyle name="Style 25" xfId="1140" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
-    <cellStyle name="Style 26" xfId="1141" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
-    <cellStyle name="Style 27" xfId="1142" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
-    <cellStyle name="Style 28" xfId="1143" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
-    <cellStyle name="Style 29" xfId="1144" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
-    <cellStyle name="Style 30" xfId="1145" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
-    <cellStyle name="Style 31" xfId="1146" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
-    <cellStyle name="Style 32" xfId="1147" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
-    <cellStyle name="Style 33" xfId="1148" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
-    <cellStyle name="Style 34" xfId="1149" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
-    <cellStyle name="Style 35" xfId="1150" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
-    <cellStyle name="Suma" xfId="1151" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
-    <cellStyle name="Suma 10" xfId="1152" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
-    <cellStyle name="Suma 10 2" xfId="1153" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
-    <cellStyle name="Suma 10 3" xfId="1154" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
-    <cellStyle name="Suma 11" xfId="1155" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
-    <cellStyle name="Suma 12" xfId="1156" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
-    <cellStyle name="Suma 2" xfId="1157" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
-    <cellStyle name="Suma 3" xfId="1158" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
-    <cellStyle name="Suma 4" xfId="1159" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
-    <cellStyle name="Suma 5" xfId="1160" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
-    <cellStyle name="Suma 6" xfId="1161" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
-    <cellStyle name="Suma 7" xfId="1162" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
-    <cellStyle name="Suma 8" xfId="1163" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
-    <cellStyle name="Suma 9" xfId="1164" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
-    <cellStyle name="Suma 9 2" xfId="1165" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
-    <cellStyle name="Suma 9 3" xfId="1166" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
-    <cellStyle name="Suma_D_HEAT" xfId="1167" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
-    <cellStyle name="Tekst objaśnienia" xfId="1168" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
-    <cellStyle name="Tekst objaśnienia 10" xfId="1169" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
-    <cellStyle name="Tekst objaśnienia 10 2" xfId="1170" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
-    <cellStyle name="Tekst objaśnienia 10 3" xfId="1171" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
-    <cellStyle name="Tekst objaśnienia 11" xfId="1172" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
-    <cellStyle name="Tekst objaśnienia 12" xfId="1173" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="1174" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="1175" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="1176" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="1177" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="1178" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="1179" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="1180" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
-    <cellStyle name="Tekst objaśnienia 9" xfId="1181" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
-    <cellStyle name="Tekst objaśnienia 9 2" xfId="1182" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
-    <cellStyle name="Tekst objaśnienia 9 3" xfId="1183" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
-    <cellStyle name="Tekst objaśnienia_D_HEAT" xfId="1184" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="1185" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 10" xfId="1186" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 10 2" xfId="1187" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 10 3" xfId="1188" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 11" xfId="1189" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 12" xfId="1190" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="1191" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="1192" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="1193" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="1194" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="1195" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="1196" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="1197" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 9" xfId="1198" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 9 2" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 9 3" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
-    <cellStyle name="Tekst ostrzeżenia_D_HEAT" xfId="1201" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
-    <cellStyle name="Title 2" xfId="1202" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
-    <cellStyle name="Title 3" xfId="1203" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
-    <cellStyle name="Total 10" xfId="1204" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
-    <cellStyle name="Total 11" xfId="1205" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
-    <cellStyle name="Total 12" xfId="1206" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
-    <cellStyle name="Total 13" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
-    <cellStyle name="Total 14" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
-    <cellStyle name="Total 15" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
-    <cellStyle name="Total 16" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
-    <cellStyle name="Total 17" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
-    <cellStyle name="Total 18" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
-    <cellStyle name="Total 19" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
-    <cellStyle name="Total 2" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
-    <cellStyle name="Total 2 2" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
-    <cellStyle name="Total 20" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
-    <cellStyle name="Total 3" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
-    <cellStyle name="Total 4" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
-    <cellStyle name="Total 5" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
-    <cellStyle name="Total 6" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
-    <cellStyle name="Total 7" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
-    <cellStyle name="Total 8" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
-    <cellStyle name="Total 9" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
-    <cellStyle name="Tytuł" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
-    <cellStyle name="Tytuł 2" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
-    <cellStyle name="Tytuł 2 2" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
-    <cellStyle name="Tytuł 2 3" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
-    <cellStyle name="Tytuł 3" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
-    <cellStyle name="Tytuł 3 2" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
-    <cellStyle name="Tytuł 3 3" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
-    <cellStyle name="Tytuł 4" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
-    <cellStyle name="Tytuł 5" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
-    <cellStyle name="Überschrift 1 2" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
-    <cellStyle name="Überschrift 2 2" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
-    <cellStyle name="Überschrift 3 2" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
-    <cellStyle name="Überschrift 4 2" xfId="1236" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
-    <cellStyle name="Überschrift 5" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
-    <cellStyle name="Unprot" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
-    <cellStyle name="Unprot$" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
-    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
-    <cellStyle name="Unprotect" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
-    <cellStyle name="Uwaga" xfId="1242" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
-    <cellStyle name="Uwaga 10" xfId="1243" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
-    <cellStyle name="Uwaga 10 2" xfId="1244" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
-    <cellStyle name="Uwaga 10 3" xfId="1245" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
-    <cellStyle name="Uwaga 10 3 2" xfId="1246" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
-    <cellStyle name="Uwaga 10 3 3" xfId="1247" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
-    <cellStyle name="Uwaga 11" xfId="1248" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
-    <cellStyle name="Uwaga 11 2" xfId="1249" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
-    <cellStyle name="Uwaga 11 3" xfId="1250" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
-    <cellStyle name="Uwaga 12" xfId="1251" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
-    <cellStyle name="Uwaga 2" xfId="1252" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
-    <cellStyle name="Uwaga 3" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
-    <cellStyle name="Uwaga 4" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
-    <cellStyle name="Uwaga 5" xfId="1255" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
-    <cellStyle name="Uwaga 6" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
-    <cellStyle name="Uwaga 7" xfId="1257" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
-    <cellStyle name="Uwaga 8" xfId="1258" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
-    <cellStyle name="Uwaga 9" xfId="1259" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
-    <cellStyle name="Uwaga 9 2" xfId="1260" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
-    <cellStyle name="Uwaga 9 3" xfId="1261" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
-    <cellStyle name="Uwaga 9 3 2" xfId="1262" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
-    <cellStyle name="Uwaga 9 3 3" xfId="1263" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
-    <cellStyle name="Uwaga_Demand" xfId="1264" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
-    <cellStyle name="Verknüpfte Zelle 2" xfId="1265" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
-    <cellStyle name="Währung 2" xfId="1266" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
-    <cellStyle name="Währung 2 2" xfId="1267" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
-    <cellStyle name="Warnender Text 2" xfId="1268" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
-    <cellStyle name="Warning Text 2" xfId="1269" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
-    <cellStyle name="Warning Text 3" xfId="1270" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
-    <cellStyle name="X10_Figs 21 dec" xfId="1271" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
-    <cellStyle name="Zelle überprüfen 2" xfId="1272" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
-    <cellStyle name="Złe" xfId="1273" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
-    <cellStyle name="Złe 10" xfId="1274" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
-    <cellStyle name="Złe 10 2" xfId="1275" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
-    <cellStyle name="Złe 10 3" xfId="1276" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
-    <cellStyle name="Złe 11" xfId="1277" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
-    <cellStyle name="Złe 12" xfId="1278" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
-    <cellStyle name="Złe 2" xfId="1279" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
-    <cellStyle name="Złe 3" xfId="1280" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
-    <cellStyle name="Złe 4" xfId="1281" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
-    <cellStyle name="Złe 5" xfId="1282" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
-    <cellStyle name="Złe 6" xfId="1283" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
-    <cellStyle name="Złe 7" xfId="1284" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
-    <cellStyle name="Złe 8" xfId="1285" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
-    <cellStyle name="Złe 9" xfId="1286" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
-    <cellStyle name="Złe 9 2" xfId="1287" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
-    <cellStyle name="Złe 9 3" xfId="1288" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
-    <cellStyle name="Złe_D_HEAT" xfId="1289" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
-    <cellStyle name="Обычный_2++_CRFReport-template" xfId="1290" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
-    <cellStyle name="已访问的超链接" xfId="1291" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
+    <cellStyle name="Normale_B2020" xfId="833" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Normalny 10" xfId="834" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Normalny 10 2" xfId="835" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Normalny 10 2 2" xfId="836" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Normalny 10 2 3" xfId="837" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Normalny 10 2 4" xfId="838" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Normalny 10 3" xfId="839" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Normalny 10 3 2" xfId="840" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Normalny 10 3 3" xfId="841" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Normalny 10 4" xfId="842" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Normalny 11" xfId="843" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Normalny 11 2" xfId="844" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Normalny 11 2 2" xfId="845" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Normalny 11 2 3" xfId="846" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Normalny 11 2 4" xfId="847" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Normalny 11 3" xfId="848" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Normalny 11 3 2" xfId="849" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Normalny 11 3 2 2" xfId="850" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Normalny 11 3 2 3" xfId="851" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Normalny 11 3 3" xfId="852" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Normalny 11 4" xfId="853" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Normalny 11 4 2" xfId="854" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Normalny 11 4 3" xfId="855" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Normalny 11 5" xfId="856" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Normalny 11 5 2" xfId="857" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Normalny 11 5 3" xfId="858" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Normalny 11 6" xfId="859" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Normalny 11 6 2" xfId="860" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Normalny 11 7" xfId="861" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Normalny 11 7 2" xfId="862" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Normalny 12" xfId="863" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Normalny 13" xfId="864" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Normalny 13 10" xfId="865" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Normalny 13 10 2" xfId="866" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Normalny 13 11" xfId="867" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Normalny 13 2" xfId="868" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Normalny 13 2 2" xfId="869" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Normalny 13 2 2 2" xfId="870" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 2" xfId="871" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 2 2" xfId="872" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 3" xfId="873" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 3 2" xfId="874" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 4" xfId="875" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 5" xfId="876" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Normalny 13 2 2 3" xfId="877" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Normalny 13 2 2 3 2" xfId="878" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Normalny 13 2 2 4" xfId="879" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Normalny 13 2 2 4 2" xfId="880" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Normalny 13 2 2 5" xfId="881" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Normalny 13 2 2 6" xfId="882" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Normalny 13 2 3" xfId="883" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Normalny 13 2 3 2" xfId="884" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Normalny 13 2 3 2 2" xfId="885" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normalny 13 2 3 3" xfId="886" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Normalny 13 2 3 3 2" xfId="887" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Normalny 13 2 3 4" xfId="888" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Normalny 13 2 3 5" xfId="889" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Normalny 13 2 4" xfId="890" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Normalny 13 2 4 2" xfId="891" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Normalny 13 2 5" xfId="892" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Normalny 13 2 5 2" xfId="893" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Normalny 13 2 6" xfId="894" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Normalny 13 2 7" xfId="895" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Normalny 13 3" xfId="896" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Normalny 13 3 2" xfId="897" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Normalny 13 3 2 2" xfId="898" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Normalny 13 3 2 2 2" xfId="899" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Normalny 13 3 2 2 3" xfId="900" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Normalny 13 3 2 3" xfId="901" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Normalny 13 3 2 4" xfId="902" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Normalny 13 3 3" xfId="903" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Normalny 13 3 4" xfId="904" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Normalny 13 3 5" xfId="905" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Normalny 13 3 5 2" xfId="906" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Normalny 13 3 6" xfId="907" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Normalny 13 3 6 2" xfId="908" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Normalny 13 3 7" xfId="909" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Normalny 13 4" xfId="910" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normalny 13 4 2" xfId="911" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Normalny 13 4 3" xfId="912" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normalny 13 5" xfId="913" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Normalny 13 5 2" xfId="914" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Normalny 13 5 3" xfId="915" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Normalny 13 6" xfId="916" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Normalny 13 6 2" xfId="917" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Normalny 13 6 2 2" xfId="918" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Normalny 13 6 3" xfId="919" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Normalny 13 6 3 2" xfId="920" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Normalny 13 6 4" xfId="921" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Normalny 13 6 5" xfId="922" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Normalny 13 7" xfId="923" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Normalny 13 7 2" xfId="924" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Normalny 13 8" xfId="925" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Normalny 13 8 2" xfId="926" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Normalny 13 9" xfId="927" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Normalny 14" xfId="928" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Normalny 14 2" xfId="929" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Normalny 14 2 2" xfId="930" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Normalny 14 2 2 2" xfId="931" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Normalny 14 2 2 3" xfId="932" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Normalny 14 2 3" xfId="933" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Normalny 14 2 4" xfId="934" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Normalny 14 3" xfId="935" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Normalny 14 4" xfId="936" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Normalny 14 5" xfId="937" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Normalny 14 5 2" xfId="938" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Normalny 15" xfId="939" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Normalny 15 2" xfId="940" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Normalny 16" xfId="941" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Normalny 16 2" xfId="942" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Normalny 16 3" xfId="943" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Normalny 17" xfId="944" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Normalny 18" xfId="945" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Normalny 18 2" xfId="946" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Normalny 19" xfId="947" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Normalny 2" xfId="948" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Normalny 2 2" xfId="949" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Normalny 2 3" xfId="950" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Normalny 2 4" xfId="951" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Normalny 20" xfId="952" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Normalny 3" xfId="953" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Normalny 4" xfId="954" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Normalny 5" xfId="955" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Normalny 6" xfId="956" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Normalny 7" xfId="957" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Normalny 8" xfId="958" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Normalny 9" xfId="959" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Note 2" xfId="960" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Note 3" xfId="961" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Notiz 2" xfId="962" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Obliczenia" xfId="963" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Obliczenia 10" xfId="964" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Obliczenia 10 2" xfId="965" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Obliczenia 10 3" xfId="966" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Obliczenia 11" xfId="967" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Obliczenia 12" xfId="968" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Obliczenia 2" xfId="969" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Obliczenia 3" xfId="970" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Obliczenia 4" xfId="971" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Obliczenia 5" xfId="972" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Obliczenia 6" xfId="973" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Obliczenia 7" xfId="974" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Obliczenia 8" xfId="975" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Obliczenia 9" xfId="976" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Obliczenia 9 2" xfId="977" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Obliczenia 9 3" xfId="978" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Obliczenia_D_HEAT" xfId="979" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Output 2" xfId="980" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Output 3" xfId="981" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Percent [2]" xfId="982" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Procentowy 2" xfId="983" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Procentowy 2 2" xfId="984" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Procentowy 2 2 2" xfId="985" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Procentowy 2 2 3" xfId="986" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Procentowy 2 2 4" xfId="987" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Procentowy 2 3" xfId="988" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Procentowy 2 3 2" xfId="989" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Procentowy 2 3 2 2" xfId="990" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Procentowy 2 3 2 3" xfId="991" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Procentowy 2 3 3" xfId="992" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Procentowy 2 4" xfId="993" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Procentowy 2 4 2" xfId="994" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Procentowy 2 4 3" xfId="995" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Procentowy 2 5" xfId="996" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Procentowy 2 6" xfId="997" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Procentowy 2 6 2" xfId="998" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Procentowy 2 7" xfId="999" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Procentowy 2 7 2" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Procentowy 3" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Procentowy 4" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Procentowy 5" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Procentowy 6" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Prozent 2" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Prozent 2 2" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Prozent 3" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Prozent 4" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Prozent 5" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Prozent 5 2" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Prozent 5 2 2" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Prozent 5 2 3" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Prozent 5 3" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Prozent 5 3 2" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Prozent 5 3 3" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Prozent 5 3 4" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Prozent 5 4" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Prozent 6" xfId="1018" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Prozent 6 2" xfId="1019" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Prozent 6 2 2" xfId="1020" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Prozent 6 2 3" xfId="1021" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Prozent 6 3" xfId="1022" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Prozent 6 3 2" xfId="1023" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Prozent 6 3 3" xfId="1024" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Prozent 6 3 4" xfId="1025" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Prozent 6 4" xfId="1026" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Prozent 7" xfId="1027" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Prozent 8" xfId="1028" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Prozent 8 2" xfId="1029" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Prozent 8 2 2" xfId="1030" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Prozent 8 3" xfId="1031" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="RangeName" xfId="1032" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="SAPBEXaggData" xfId="1033" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="1034" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="1035" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="1036" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="SAPBEXchaText" xfId="1037" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="1038" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="1039" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="1040" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="1041" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="1042" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="1043" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="1044" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="1045" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="1046" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="1047" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="1048" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="1049" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="SAPBEXformats" xfId="1050" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="1051" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="1052" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="1053" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="1054" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="1055" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="1056" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="1057" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="1058" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="1059" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="1060" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="SAPBEXresData" xfId="1061" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="1062" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="SAPBEXresItem" xfId="1063" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="SAPBEXresItemX" xfId="1064" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="SAPBEXstdData" xfId="1065" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="1066" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="1067" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="1068" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="SAPBEXtitle" xfId="1069" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="SAPBEXundefined" xfId="1070" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Schlecht 2" xfId="1071" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Shade" xfId="1072" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Standaard_Blad1" xfId="1073" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Standard 10" xfId="1074" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Standard 11" xfId="1075" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Standard 11 2" xfId="1076" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Standard 11 3" xfId="1077" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Standard 11 4" xfId="1078" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Standard 11 5" xfId="1079" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Standard 12" xfId="1080" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Standard 12 2" xfId="1081" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Standard 12 2 2" xfId="1082" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Standard 12 2 2 2" xfId="1083" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Standard 12 3" xfId="1084" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Standard 12 4" xfId="1085" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Standard 13" xfId="1086" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Standard 2" xfId="1087" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Standard 2 2" xfId="1088" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Standard 2 3" xfId="1089" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Standard 2 3 2" xfId="1090" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Standard 2 3 3" xfId="1091" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Standard 2 4" xfId="1092" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Standard 2 4 2" xfId="1093" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Standard 2 4 3" xfId="1094" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Standard 2 5" xfId="1095" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Standard 3" xfId="1096" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Standard 3 2" xfId="1097" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Standard 3_PL" xfId="1098" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Standard 4" xfId="1099" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Standard 4 2" xfId="1100" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Standard 4_PL" xfId="1101" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Standard 5" xfId="1102" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Standard 5 2" xfId="1103" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Standard 5 2 2" xfId="1104" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Standard 5 2 2 2" xfId="1105" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Standard 5 2 2 3" xfId="1106" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Standard 5 2 3" xfId="1107" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Standard 5 2 3 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Standard 5 2 3 3" xfId="1109" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Standard 5 2 4" xfId="1110" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Standard 5 2 5" xfId="1111" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Standard 5 2_ELC_Processes" xfId="1112" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Standard 5 3" xfId="1113" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Standard 5 3 2" xfId="1114" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Standard 5 3 3" xfId="1115" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Standard 5 4" xfId="1116" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Standard 5 4 2" xfId="1117" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Standard 5 4 3" xfId="1118" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Standard 5 5" xfId="1119" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Standard 5 5 2" xfId="1120" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Standard 5 5 3" xfId="1121" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Standard 5 6" xfId="1122" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Standard 5 7" xfId="1123" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Standard 5_ELC_Processes" xfId="1124" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Standard 6" xfId="1125" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Standard 6 2" xfId="1126" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Standard 7" xfId="1127" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Standard 8" xfId="1128" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Standard 8 2" xfId="1129" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Standard 8 3" xfId="1130" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Standard 9" xfId="1131" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Standard 9 2" xfId="1132" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Standard 9 3" xfId="1133" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Standard_Results_Pan_EU_OLGA_NUC" xfId="1134" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Style 21" xfId="1135" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Style 22" xfId="1136" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Style 23" xfId="1137" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Style 24" xfId="1138" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Style 25" xfId="1139" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Style 26" xfId="1140" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Style 27" xfId="1141" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Style 28" xfId="1142" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Style 29" xfId="1143" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Style 30" xfId="1144" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Style 31" xfId="1145" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Style 32" xfId="1146" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Style 33" xfId="1147" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Style 34" xfId="1148" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Style 35" xfId="1149" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Suma" xfId="1150" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Suma 10" xfId="1151" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Suma 10 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Suma 10 3" xfId="1153" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Suma 11" xfId="1154" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Suma 12" xfId="1155" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Suma 2" xfId="1156" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Suma 3" xfId="1157" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Suma 4" xfId="1158" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Suma 5" xfId="1159" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Suma 6" xfId="1160" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Suma 7" xfId="1161" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Suma 8" xfId="1162" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Suma 9" xfId="1163" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Suma 9 2" xfId="1164" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Suma 9 3" xfId="1165" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Suma_D_HEAT" xfId="1166" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Tekst objaśnienia" xfId="1167" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Tekst objaśnienia 10" xfId="1168" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Tekst objaśnienia 10 2" xfId="1169" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Tekst objaśnienia 10 3" xfId="1170" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Tekst objaśnienia 11" xfId="1171" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Tekst objaśnienia 12" xfId="1172" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="1173" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="1174" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Tekst objaśnienia 4" xfId="1175" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Tekst objaśnienia 5" xfId="1176" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Tekst objaśnienia 6" xfId="1177" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Tekst objaśnienia 7" xfId="1178" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Tekst objaśnienia 8" xfId="1179" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Tekst objaśnienia 9" xfId="1180" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="Tekst objaśnienia 9 2" xfId="1181" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="Tekst objaśnienia 9 3" xfId="1182" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Tekst objaśnienia_D_HEAT" xfId="1183" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="1184" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 10" xfId="1185" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 10 2" xfId="1186" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 10 3" xfId="1187" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 11" xfId="1188" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 12" xfId="1189" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="1190" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="1191" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 4" xfId="1192" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 5" xfId="1193" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 6" xfId="1194" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 7" xfId="1195" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 8" xfId="1196" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 9" xfId="1197" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 9 2" xfId="1198" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 9 3" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Tekst ostrzeżenia_D_HEAT" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Title 2" xfId="1201" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Title 3" xfId="1202" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Total 10" xfId="1203" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Total 11" xfId="1204" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Total 12" xfId="1205" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Total 13" xfId="1206" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Total 14" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Total 15" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Total 16" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="Total 17" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Total 18" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="Total 19" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="Total 2" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Total 2 2" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Total 20" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Total 3" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="Total 4" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="Total 5" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="Total 6" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Total 7" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Total 8" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="Total 9" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Tytuł" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Tytuł 2" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="Tytuł 2 2" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="Tytuł 2 3" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Tytuł 3" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Tytuł 3 2" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Tytuł 3 3" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Tytuł 4" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Tytuł 5" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Überschrift 1 2" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Überschrift 2 2" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Überschrift 3 2" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="Überschrift 4 2" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Überschrift 5" xfId="1236" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Unprot" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Unprot$" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Unprotect" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Uwaga" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="Uwaga 10" xfId="1242" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Uwaga 10 2" xfId="1243" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="Uwaga 10 3" xfId="1244" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="Uwaga 10 3 2" xfId="1245" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Uwaga 10 3 3" xfId="1246" xr:uid="{00000000-0005-0000-0000-0000DF040000}"/>
+    <cellStyle name="Uwaga 11" xfId="1247" xr:uid="{00000000-0005-0000-0000-0000E0040000}"/>
+    <cellStyle name="Uwaga 11 2" xfId="1248" xr:uid="{00000000-0005-0000-0000-0000E1040000}"/>
+    <cellStyle name="Uwaga 11 3" xfId="1249" xr:uid="{00000000-0005-0000-0000-0000E2040000}"/>
+    <cellStyle name="Uwaga 12" xfId="1250" xr:uid="{00000000-0005-0000-0000-0000E3040000}"/>
+    <cellStyle name="Uwaga 2" xfId="1251" xr:uid="{00000000-0005-0000-0000-0000E4040000}"/>
+    <cellStyle name="Uwaga 3" xfId="1252" xr:uid="{00000000-0005-0000-0000-0000E5040000}"/>
+    <cellStyle name="Uwaga 4" xfId="1253" xr:uid="{00000000-0005-0000-0000-0000E6040000}"/>
+    <cellStyle name="Uwaga 5" xfId="1254" xr:uid="{00000000-0005-0000-0000-0000E7040000}"/>
+    <cellStyle name="Uwaga 6" xfId="1255" xr:uid="{00000000-0005-0000-0000-0000E8040000}"/>
+    <cellStyle name="Uwaga 7" xfId="1256" xr:uid="{00000000-0005-0000-0000-0000E9040000}"/>
+    <cellStyle name="Uwaga 8" xfId="1257" xr:uid="{00000000-0005-0000-0000-0000EA040000}"/>
+    <cellStyle name="Uwaga 9" xfId="1258" xr:uid="{00000000-0005-0000-0000-0000EB040000}"/>
+    <cellStyle name="Uwaga 9 2" xfId="1259" xr:uid="{00000000-0005-0000-0000-0000EC040000}"/>
+    <cellStyle name="Uwaga 9 3" xfId="1260" xr:uid="{00000000-0005-0000-0000-0000ED040000}"/>
+    <cellStyle name="Uwaga 9 3 2" xfId="1261" xr:uid="{00000000-0005-0000-0000-0000EE040000}"/>
+    <cellStyle name="Uwaga 9 3 3" xfId="1262" xr:uid="{00000000-0005-0000-0000-0000EF040000}"/>
+    <cellStyle name="Uwaga_Demand" xfId="1263" xr:uid="{00000000-0005-0000-0000-0000F0040000}"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="1264" xr:uid="{00000000-0005-0000-0000-0000F1040000}"/>
+    <cellStyle name="Währung 2" xfId="1265" xr:uid="{00000000-0005-0000-0000-0000F2040000}"/>
+    <cellStyle name="Währung 2 2" xfId="1266" xr:uid="{00000000-0005-0000-0000-0000F3040000}"/>
+    <cellStyle name="Warnender Text 2" xfId="1267" xr:uid="{00000000-0005-0000-0000-0000F4040000}"/>
+    <cellStyle name="Warning Text 2" xfId="1268" xr:uid="{00000000-0005-0000-0000-0000F5040000}"/>
+    <cellStyle name="Warning Text 3" xfId="1269" xr:uid="{00000000-0005-0000-0000-0000F6040000}"/>
+    <cellStyle name="X10_Figs 21 dec" xfId="1270" xr:uid="{00000000-0005-0000-0000-0000F7040000}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="1271" xr:uid="{00000000-0005-0000-0000-0000F8040000}"/>
+    <cellStyle name="Złe" xfId="1272" xr:uid="{00000000-0005-0000-0000-0000F9040000}"/>
+    <cellStyle name="Złe 10" xfId="1273" xr:uid="{00000000-0005-0000-0000-0000FA040000}"/>
+    <cellStyle name="Złe 10 2" xfId="1274" xr:uid="{00000000-0005-0000-0000-0000FB040000}"/>
+    <cellStyle name="Złe 10 3" xfId="1275" xr:uid="{00000000-0005-0000-0000-0000FC040000}"/>
+    <cellStyle name="Złe 11" xfId="1276" xr:uid="{00000000-0005-0000-0000-0000FD040000}"/>
+    <cellStyle name="Złe 12" xfId="1277" xr:uid="{00000000-0005-0000-0000-0000FE040000}"/>
+    <cellStyle name="Złe 2" xfId="1278" xr:uid="{00000000-0005-0000-0000-0000FF040000}"/>
+    <cellStyle name="Złe 3" xfId="1279" xr:uid="{00000000-0005-0000-0000-000000050000}"/>
+    <cellStyle name="Złe 4" xfId="1280" xr:uid="{00000000-0005-0000-0000-000001050000}"/>
+    <cellStyle name="Złe 5" xfId="1281" xr:uid="{00000000-0005-0000-0000-000002050000}"/>
+    <cellStyle name="Złe 6" xfId="1282" xr:uid="{00000000-0005-0000-0000-000003050000}"/>
+    <cellStyle name="Złe 7" xfId="1283" xr:uid="{00000000-0005-0000-0000-000004050000}"/>
+    <cellStyle name="Złe 8" xfId="1284" xr:uid="{00000000-0005-0000-0000-000005050000}"/>
+    <cellStyle name="Złe 9" xfId="1285" xr:uid="{00000000-0005-0000-0000-000006050000}"/>
+    <cellStyle name="Złe 9 2" xfId="1286" xr:uid="{00000000-0005-0000-0000-000007050000}"/>
+    <cellStyle name="Złe 9 3" xfId="1287" xr:uid="{00000000-0005-0000-0000-000008050000}"/>
+    <cellStyle name="Złe_D_HEAT" xfId="1288" xr:uid="{00000000-0005-0000-0000-000009050000}"/>
+    <cellStyle name="Обычный_2++_CRFReport-template" xfId="1289" xr:uid="{00000000-0005-0000-0000-00000A050000}"/>
+    <cellStyle name="已访问的超链接" xfId="1290" xr:uid="{00000000-0005-0000-0000-00000B050000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4176,9 +4170,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4216,9 +4210,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4251,26 +4245,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4303,26 +4280,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4499,20 +4459,20 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.350000000000001">
+    <row r="2" spans="2:6" ht="18">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -4521,12 +4481,12 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="4" spans="2:6" ht="15.8" customHeight="1">
+    <row r="4" spans="2:6" ht="15.75" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.8" customHeight="1">
+    <row r="5" spans="2:6" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4560,72 +4520,72 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.8" customHeight="1">
+    <row r="7" spans="2:6" ht="15.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
         <v>2035</v>
       </c>
       <c r="E7" s="4">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.8" customHeight="1">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6">
         <v>2040</v>
       </c>
       <c r="E8" s="6">
-        <v>1.2999999999999998</v>
+        <v>3.33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.8" customHeight="1">
+    <row r="9" spans="2:6" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
         <v>2045</v>
       </c>
       <c r="E9" s="4">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.8" customHeight="1" thickBot="1">
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="8">
         <v>2050</v>
       </c>
       <c r="E10" s="8">
-        <v>2.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4908,7 +4868,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CBF445-8A19-4726-A620-296A76E701BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E576CF-8E4C-455E-9CBD-0615A7DAEF26}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
